--- a/tutorial/streams/AEStreamTable2.xlsx
+++ b/tutorial/streams/AEStreamTable2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nokman/git/PyPinch/tutorial/streams/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A7A93AE-987A-E34A-94FA-172AE44C3BB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47B275EC-DD00-4444-96D1-F8E46DF6730D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="47040" yWindow="500" windowWidth="21600" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="23">
   <si>
     <t>Stream Number</t>
   </si>
@@ -62,12 +62,6 @@
     <t>Cp (kJ/kmol/K)</t>
   </si>
   <si>
-    <t>Duty [kJ/hr]</t>
-  </si>
-  <si>
-    <t>Duty [kW]</t>
-  </si>
-  <si>
     <t>cold</t>
   </si>
   <si>
@@ -114,9 +108,6 @@
   </si>
   <si>
     <t>S37</t>
-  </si>
-  <si>
-    <t>Flux [kW / K]</t>
   </si>
 </sst>
 </file>
@@ -494,7 +485,7 @@
   <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -526,23 +517,17 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
       <c r="K1" s="1"/>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C2" s="1">
         <v>162.59865199999999</v>
@@ -560,24 +545,13 @@
       <c r="G2" s="3">
         <v>175.45327159999999</v>
       </c>
-      <c r="H2">
-        <f t="shared" ref="H2:H7" si="1">G2*F2*C2</f>
-        <v>-1603576.3578031128</v>
-      </c>
-      <c r="I2">
-        <v>-445.43787722000002</v>
-      </c>
-      <c r="J2">
-        <f>I2/F2</f>
-        <v>7.9245737373639678</v>
-      </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C3" s="1">
         <v>309.3176618</v>
@@ -595,24 +569,14 @@
       <c r="G3" s="1">
         <v>226.37445740000001</v>
       </c>
-      <c r="H3" s="1">
-        <f t="shared" si="1"/>
-        <v>-34671178.123499192</v>
-      </c>
-      <c r="I3">
-        <v>-9630.8828111000003</v>
-      </c>
-      <c r="J3">
-        <f>I3/F3</f>
-        <v>19.450449401962221</v>
-      </c>
+      <c r="H3" s="1"/>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C4" s="1">
         <v>256</v>
@@ -630,24 +594,13 @@
       <c r="G4" s="1">
         <v>29.584852940000001</v>
       </c>
-      <c r="H4">
-        <f t="shared" si="1"/>
-        <v>-4544233.4115840001</v>
-      </c>
-      <c r="I4">
-        <v>-1262.2870588999999</v>
-      </c>
-      <c r="J4">
-        <f>I4/F4</f>
-        <v>2.103811764833333</v>
-      </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C5" s="1">
         <v>575.34732440000005</v>
@@ -665,24 +618,14 @@
       <c r="G5" s="2">
         <v>124</v>
       </c>
-      <c r="H5" s="4">
-        <f t="shared" si="1"/>
-        <v>44090016.163420804</v>
-      </c>
-      <c r="I5">
-        <v>12250</v>
-      </c>
-      <c r="J5">
-        <f>I5/F5</f>
-        <v>19.822006472491911</v>
-      </c>
+      <c r="H5" s="4"/>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C6" s="1">
         <v>158.3520293</v>
@@ -700,24 +643,13 @@
       <c r="G6" s="1">
         <v>150.56045879999999</v>
       </c>
-      <c r="H6">
-        <f t="shared" si="1"/>
-        <v>-3563188.8531898959</v>
-      </c>
-      <c r="I6">
-        <v>-989.77468138999996</v>
-      </c>
-      <c r="J6">
-        <f>I6/F6</f>
-        <v>6.6226539394653319</v>
-      </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C7" s="1">
         <v>500</v>
@@ -735,24 +667,13 @@
       <c r="G7" s="1">
         <v>29.089415850000002</v>
       </c>
-      <c r="H7">
-        <f t="shared" si="1"/>
-        <v>-1890812.0302500001</v>
-      </c>
-      <c r="I7">
-        <v>-525.22556388999999</v>
-      </c>
-      <c r="J7">
-        <f>I7/F7</f>
-        <v>4.0401966453076925</v>
-      </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C8" s="1">
         <v>337.0182461</v>
@@ -770,24 +691,13 @@
       <c r="G8" s="1">
         <v>139.85539499999999</v>
       </c>
-      <c r="H8">
-        <f>F8*G8*C8</f>
-        <v>5891727.4913153378</v>
-      </c>
-      <c r="I8">
-        <v>1636.5909697</v>
-      </c>
-      <c r="J8">
-        <f>I8/F8</f>
-        <v>13.092727757600001</v>
-      </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C9" s="2">
         <v>322</v>
@@ -805,24 +715,14 @@
       <c r="G9" s="1">
         <v>149.39694850000001</v>
       </c>
-      <c r="H9" s="4">
-        <f t="shared" ref="H9:H15" si="2">C9*F9*G9</f>
-        <v>91354.116727304485</v>
-      </c>
-      <c r="I9">
-        <v>25.388888889</v>
-      </c>
-      <c r="J9">
-        <f>I9/F9</f>
-        <v>13.369438587650297</v>
-      </c>
+      <c r="H9" s="4"/>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C10" s="1">
         <v>7.4976159999999998</v>
@@ -840,24 +740,13 @@
       <c r="G10" s="1">
         <v>29.392114469999999</v>
       </c>
-      <c r="H10">
-        <f t="shared" si="2"/>
-        <v>-27546.349811978453</v>
-      </c>
-      <c r="I10">
-        <v>-7.6517638360999998</v>
-      </c>
-      <c r="J10">
-        <f>I10/F10</f>
-        <v>6.1214107696654411E-2</v>
-      </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C11" s="1">
         <v>215.71549999999999</v>
@@ -875,24 +764,13 @@
       <c r="G11" s="1">
         <v>199.68513279999999</v>
       </c>
-      <c r="H11">
-        <f t="shared" si="2"/>
-        <v>-3446014.2611614713</v>
-      </c>
-      <c r="I11">
-        <v>-957.22618361000002</v>
-      </c>
-      <c r="J11">
-        <f>I11/F11</f>
-        <v>11.965327295125</v>
-      </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C12" s="1">
         <v>196.1049419</v>
@@ -910,24 +788,13 @@
       <c r="G12" s="1">
         <v>109.9714558</v>
       </c>
-      <c r="H12">
-        <f t="shared" si="2"/>
-        <v>-854622.1528756991</v>
-      </c>
-      <c r="I12">
-        <v>-237.39504246999999</v>
-      </c>
-      <c r="J12">
-        <f>I12/F12</f>
-        <v>5.9905405418691009</v>
-      </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C13" s="1">
         <v>125.9180805</v>
@@ -945,24 +812,13 @@
       <c r="G13" s="1">
         <v>175.0360245</v>
       </c>
-      <c r="H13">
-        <f t="shared" si="2"/>
-        <v>-401213.50423457142</v>
-      </c>
-      <c r="I13">
-        <v>-111.44819561</v>
-      </c>
-      <c r="J13">
-        <f>I13/F13</f>
-        <v>6.1222778392422486</v>
-      </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C14" s="1">
         <v>30.641400000000001</v>
@@ -980,24 +836,13 @@
       <c r="G14" s="1">
         <v>142.980199</v>
       </c>
-      <c r="H14">
-        <f t="shared" si="2"/>
-        <v>-281523.17700374743</v>
-      </c>
-      <c r="I14">
-        <v>-78.200882500000006</v>
-      </c>
-      <c r="J14">
-        <f>I14/F14</f>
-        <v>1.2169759637723006</v>
-      </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C15" s="1">
         <v>79.933218260000004</v>
@@ -1014,17 +859,6 @@
       </c>
       <c r="G15" s="1">
         <v>184.91522639999999</v>
-      </c>
-      <c r="H15">
-        <f t="shared" si="2"/>
-        <v>239298.61758296474</v>
-      </c>
-      <c r="I15">
-        <v>66.471838222000002</v>
-      </c>
-      <c r="J15">
-        <f>I15/F15</f>
-        <v>4.1057969867864799</v>
       </c>
     </row>
   </sheetData>
@@ -1033,6 +867,17 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="dba03bd0-07eb-47bd-a862-a3b0372df2ff" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8b148402-c3d2-4106-8de5-94ce7d275064">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100E24127873435EB4D8673861F1BB10D51" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="282387483089c8f3747a49b2acd64d92">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8b148402-c3d2-4106-8de5-94ce7d275064" xmlns:ns3="dba03bd0-07eb-47bd-a862-a3b0372df2ff" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b4b3b7d8a0952423cb769cc3b640ec76" ns2:_="" ns3:_="">
     <xsd:import namespace="8b148402-c3d2-4106-8de5-94ce7d275064"/>
@@ -1249,7 +1094,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -1258,18 +1103,18 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="dba03bd0-07eb-47bd-a862-a3b0372df2ff" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8b148402-c3d2-4106-8de5-94ce7d275064">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{38994224-EB57-455E-9FB3-99E183BC8079}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="dba03bd0-07eb-47bd-a862-a3b0372df2ff"/>
+    <ds:schemaRef ds:uri="8b148402-c3d2-4106-8de5-94ce7d275064"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5307889A-CE83-4ED0-9B5C-0C0F8C84078D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1288,21 +1133,10 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D609CD12-F426-44A9-A7AF-C7AEFEEB68B2}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{38994224-EB57-455E-9FB3-99E183BC8079}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="dba03bd0-07eb-47bd-a862-a3b0372df2ff"/>
-    <ds:schemaRef ds:uri="8b148402-c3d2-4106-8de5-94ce7d275064"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/tutorial/streams/AEStreamTable2.xlsx
+++ b/tutorial/streams/AEStreamTable2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nokman/git/PyPinch/tutorial/streams/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47B275EC-DD00-4444-96D1-F8E46DF6730D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{375DEC8C-C68B-3142-86CB-EDDBBB24FC76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -56,9 +56,6 @@
     <t>Tout</t>
   </si>
   <si>
-    <t xml:space="preserve">T_diff </t>
-  </si>
-  <si>
     <t>Cp (kJ/kmol/K)</t>
   </si>
   <si>
@@ -108,6 +105,9 @@
   </si>
   <si>
     <t>S37</t>
+  </si>
+  <si>
+    <t>T_diff</t>
   </si>
 </sst>
 </file>
@@ -485,7 +485,7 @@
   <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -512,10 +512,10 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
       </c>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -524,10 +524,10 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2" s="1">
         <v>162.59865199999999</v>
@@ -548,10 +548,10 @@
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3" s="1">
         <v>309.3176618</v>
@@ -573,10 +573,10 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" s="1">
         <v>256</v>
@@ -597,10 +597,10 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="C5" s="1">
         <v>575.34732440000005</v>
@@ -622,10 +622,10 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6" s="1">
         <v>158.3520293</v>
@@ -646,10 +646,10 @@
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C7" s="1">
         <v>500</v>
@@ -670,10 +670,10 @@
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C8" s="1">
         <v>337.0182461</v>
@@ -694,10 +694,10 @@
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C9" s="2">
         <v>322</v>
@@ -719,10 +719,10 @@
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C10" s="1">
         <v>7.4976159999999998</v>
@@ -743,10 +743,10 @@
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C11" s="1">
         <v>215.71549999999999</v>
@@ -767,10 +767,10 @@
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C12" s="1">
         <v>196.1049419</v>
@@ -791,10 +791,10 @@
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C13" s="1">
         <v>125.9180805</v>
@@ -815,10 +815,10 @@
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C14" s="1">
         <v>30.641400000000001</v>
@@ -839,10 +839,10 @@
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C15" s="1">
         <v>79.933218260000004</v>
@@ -867,14 +867,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="dba03bd0-07eb-47bd-a862-a3b0372df2ff" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8b148402-c3d2-4106-8de5-94ce7d275064">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1095,21 +1093,20 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="dba03bd0-07eb-47bd-a862-a3b0372df2ff" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8b148402-c3d2-4106-8de5-94ce7d275064">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{38994224-EB57-455E-9FB3-99E183BC8079}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D609CD12-F426-44A9-A7AF-C7AEFEEB68B2}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="dba03bd0-07eb-47bd-a862-a3b0372df2ff"/>
-    <ds:schemaRef ds:uri="8b148402-c3d2-4106-8de5-94ce7d275064"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1134,9 +1131,12 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D609CD12-F426-44A9-A7AF-C7AEFEEB68B2}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{38994224-EB57-455E-9FB3-99E183BC8079}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="dba03bd0-07eb-47bd-a862-a3b0372df2ff"/>
+    <ds:schemaRef ds:uri="8b148402-c3d2-4106-8de5-94ce7d275064"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>